--- a/Document/EXCEL/10_11~10_12 일정 계획.xlsx
+++ b/Document/EXCEL/10_11~10_12 일정 계획.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>intertest페이지 사진 추가 &amp; 관심 추가 연동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. index.html 랜덤으로 불려오는 것 제대로 불러오기 (첫번째줄: 이름, 두번째줄: 학번, 세번째줄: 학과)
 2. 회사가 index.html 학생 클릭하면 해당 학생 레주메로(myresume.html) 넘어가기 (만약 회사로 로그인이 안되어있으면 로그인창으로 넘어간다.)
@@ -69,6 +65,11 @@
   </si>
   <si>
     <t>search 완성!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. intertest페이지 사진 추가 &amp; 관심 추가 연동
+2. 깃헙&amp;페북 주소 연동</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -197,20 +198,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,7 +526,7 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,12 +552,12 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H3"/>
@@ -595,16 +596,16 @@
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14" ht="332.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -618,13 +619,13 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
